--- a/old_database/crypto/s2cDNASample/s2cDNASample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_0711_5_0718_7.xlsx
@@ -43,7 +43,7 @@
     <t>04.10.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0711_5_0718_7</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s2cDNASample/s2cDNASample_0711_5_0718_7.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_0711_5_0718_7.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Retrofitted_0711_5_0718_7</t>
   </si>
   <si>
-    <t xml:space="preserve">SolexaPrep</t>
+    <t xml:space="preserve">SuperScriptIII</t>
   </si>
   <si>
     <t xml:space="preserve">04.13.12</t>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,12 +98,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -172,8 +166,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -195,8 +189,8 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="G2:G45 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,7 +221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -250,7 +244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -273,7 +267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -296,7 +290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -319,7 +313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
@@ -342,7 +336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
@@ -365,7 +359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
@@ -388,7 +382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
@@ -411,7 +405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
@@ -434,7 +428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
@@ -457,7 +451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
@@ -480,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
@@ -503,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>10</v>
       </c>
@@ -526,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>10</v>
       </c>
@@ -549,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>10</v>
       </c>
@@ -572,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
@@ -595,7 +589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>11</v>
       </c>
@@ -618,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>11</v>
       </c>
@@ -641,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>11</v>
       </c>
@@ -664,7 +658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>11</v>
       </c>
@@ -687,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>11</v>
       </c>
@@ -710,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>11</v>
       </c>
@@ -733,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>7</v>
       </c>
@@ -756,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>7</v>
       </c>
@@ -779,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>7</v>
       </c>
@@ -802,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>7</v>
       </c>
@@ -825,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>7</v>
       </c>
@@ -848,7 +842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>7</v>
       </c>
@@ -871,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>7</v>
       </c>
@@ -894,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>10</v>
       </c>
@@ -917,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>10</v>
       </c>
@@ -940,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>10</v>
       </c>
@@ -963,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>10</v>
       </c>
@@ -986,7 +980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>10</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>11</v>
       </c>
